--- a/samples/case03_fqdn/rules/rules.xlsx
+++ b/samples/case03_fqdn/rules/rules.xlsx
@@ -424,12 +424,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,8 +527,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,8 +562,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -597,17 +597,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
